--- a/database.xlsx
+++ b/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7737801D-A924-6145-9078-7E467881AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -67,95 +61,140 @@
     <t>Link</t>
   </si>
   <si>
-    <t>ETT-MT</t>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Disruption</t>
+  </si>
+  <si>
+    <t>Asset Types</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>HCT-1</t>
+  </si>
+  <si>
+    <t>HCT-2</t>
+  </si>
+  <si>
+    <t>WTW</t>
+  </si>
+  <si>
+    <t>WB12</t>
+  </si>
+  <si>
+    <t>CP-ETT-fsJ o_x000D_4P</t>
   </si>
   <si>
     <t>Maximum Temperature</t>
   </si>
   <si>
+    <t>Maximum Precipitation</t>
+  </si>
+  <si>
+    <t>Heat Wave</t>
+  </si>
+  <si>
+    <t>Cumulative Precipitation</t>
+  </si>
+  <si>
     <t>Exposure Tolerance Threshold</t>
   </si>
   <si>
+    <t>Hazard Criticality Threshold</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>degree celsius</t>
   </si>
   <si>
+    <t>mm/day</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>number of days</t>
   </si>
   <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
     <t>Heat</t>
   </si>
   <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
     <t>A1.2, A1.3, A1.6</t>
   </si>
   <si>
+    <t>A1.2,A1.3,A1.6</t>
+  </si>
+  <si>
+    <t>A1.3,A1.6</t>
+  </si>
+  <si>
     <t>Armenia, Georgia, Vietnam</t>
   </si>
   <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
     <t>Test Description</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>https://github.com/Analytics-for-a-Better-World/GPBP_Analytics_Tools</t>
   </si>
   <si>
-    <t>HCT-1</t>
-  </si>
-  <si>
-    <t>Hazard Criticality Threshold</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>HCT-2</t>
-  </si>
-  <si>
-    <t>Maximum Precipitation</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Precipitation</t>
-  </si>
-  <si>
-    <t>HW-HCT-Og!S O_B</t>
-  </si>
-  <si>
-    <t>Heat Wave</t>
-  </si>
-  <si>
-    <t>A1.2,A1.3,A1.6</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>MT-ETT-aU9u	$v*</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>\</t>
+    <t>http://gpbprtd.eu.pythonanywhere.com/</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Severe</t>
+  </si>
+  <si>
+    <t>Urban Roads</t>
+  </si>
+  <si>
+    <t>Highways</t>
+  </si>
+  <si>
+    <t>Public Buildings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +205,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,28 +250,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -510,25 +557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="56.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,22 +610,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>120</v>
@@ -601,33 +646,42 @@
         <v>190</v>
       </c>
       <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -642,33 +696,42 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -683,33 +746,42 @@
         <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -724,68 +796,148 @@
         <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>170</v>
+      </c>
+      <c r="H6">
+        <v>190</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="H21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="I21" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
         <v>42</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O21" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC9A7E0-B010-0840-838C-29AEFE3BC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="30080" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -122,9 +128,6 @@
   </si>
   <si>
     <t>160</t>
-  </si>
-  <si>
-    <t>\</t>
   </si>
   <si>
     <t>180</t>
@@ -193,8 +196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +273,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -316,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,9 +359,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,6 +411,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,14 +604,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -646,34 +704,34 @@
         <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -699,31 +757,31 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
         <v>15</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -746,34 +804,34 @@
         <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -799,28 +857,28 @@
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -846,97 +904,92 @@
         <v>190</v>
       </c>
       <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" t="s">
         <v>15</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>54</v>
-      </c>
-      <c r="R21" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="O3" r:id="rId2"/>
-    <hyperlink ref="O4" r:id="rId3"/>
-    <hyperlink ref="O21" r:id="rId4"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC9A7E0-B010-0840-838C-29AEFE3BC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5877B5AC-A870-F942-BFCD-1A2403F487DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="30080" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -91,7 +91,31 @@
     <t>WB12</t>
   </si>
   <si>
-    <t>CP-ETT-fsJ o_x000D_4P</t>
+    <t>CP-ETT-fsJ o_x005F_x000D_4P</t>
+  </si>
+  <si>
+    <t>MT-HCT-Mqdnb?ji</t>
+  </si>
+  <si>
+    <t>MT-HCT-7j#b\_x005F_x000B_TX</t>
+  </si>
+  <si>
+    <t>MT-ETT-F&amp;H6JUyK</t>
+  </si>
+  <si>
+    <t>MT-ETT-UhS Fr@T</t>
+  </si>
+  <si>
+    <t>MT-HCT-2]]f$dfW</t>
+  </si>
+  <si>
+    <t>MT-ETT-@_x005F_x000B_lZ}_x005F_x000C_OG</t>
+  </si>
+  <si>
+    <t>MT-ETT-Vq"7=I]8</t>
+  </si>
+  <si>
+    <t>MT-HCT-.S?syq3L</t>
   </si>
   <si>
     <t>Maximum Temperature</t>
@@ -112,25 +136,19 @@
     <t>Hazard Criticality Threshold</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>degree celsius</t>
   </si>
   <si>
     <t>mm/day</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>180</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
   <si>
     <t>number of days</t>
@@ -157,6 +175,12 @@
     <t>A1.3,A1.6</t>
   </si>
   <si>
+    <t>H - Transporting and storage</t>
+  </si>
+  <si>
+    <t>H49.3 - Other passenger land transport,H49.4 - Freight transport by road and removal services</t>
+  </si>
+  <si>
     <t>Armenia, Georgia, Vietnam</t>
   </si>
   <si>
@@ -166,24 +190,66 @@
     <t>Vietnam</t>
   </si>
   <si>
+    <t>Armenia</t>
+  </si>
+  <si>
     <t>Test Description</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
+    <t>This is a demonstration version for asphalt rural roads</t>
+  </si>
+  <si>
+    <t>This is a simple test RTD for railroads</t>
+  </si>
+  <si>
+    <t>This is a guestimate used for testing</t>
+  </si>
+  <si>
+    <t>this is a test</t>
+  </si>
+  <si>
+    <t>this is illustration</t>
+  </si>
+  <si>
+    <t>tis is a test</t>
+  </si>
+  <si>
     <t>https://github.com/Analytics-for-a-Better-World/GPBP_Analytics_Tools</t>
   </si>
   <si>
     <t>http://gpbprtd.eu.pythonanywhere.com/</t>
   </si>
   <si>
+    <t>Road Test Global</t>
+  </si>
+  <si>
+    <t>Rail INFRA Test RTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM Road Main Minor </t>
+  </si>
+  <si>
+    <t>ARM Road Main Moderate</t>
+  </si>
+  <si>
+    <t>ARM Road Main Severe</t>
+  </si>
+  <si>
+    <t>ARM Road Main Catastrophic</t>
+  </si>
+  <si>
     <t>Moderate</t>
   </si>
   <si>
     <t>Severe</t>
   </si>
   <si>
+    <t>Minor</t>
+  </si>
+  <si>
     <t>Urban Roads</t>
   </si>
   <si>
@@ -191,6 +257,12 @@
   </si>
   <si>
     <t>Public Buildings</t>
+  </si>
+  <si>
+    <t>Rural Roads</t>
+  </si>
+  <si>
+    <t>Railway lines ,Railway stations</t>
   </si>
 </sst>
 </file>
@@ -285,9 +357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,9 +397,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,26 +432,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,26 +467,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -605,21 +643,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -683,16 +721,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>120</v>
@@ -704,31 +742,31 @@
         <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -736,10 +774,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -754,31 +792,31 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s">
         <v>15</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -786,10 +824,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -804,31 +842,31 @@
         <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -836,10 +874,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -854,28 +892,28 @@
         <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -883,16 +921,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>120</v>
@@ -904,28 +942,28 @@
         <v>190</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s">
         <v>15</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -933,55 +971,401 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>140</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>180</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>42.5</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>47.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>42.5</v>
+      </c>
+      <c r="G11">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>47.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>37.5</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>37.5</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>42.5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="J7" t="s">
+      <c r="F14">
+        <v>42.5</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>47.5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
         <v>41</v>
       </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
         <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5877B5AC-A870-F942-BFCD-1A2403F487DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85959F4-8E13-CF44-A6D1-EECA75C4E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -85,9 +85,6 @@
     <t>HCT-2</t>
   </si>
   <si>
-    <t>WTW</t>
-  </si>
-  <si>
     <t>WB12</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>MT-ETT-F&amp;H6JUyK</t>
   </si>
   <si>
-    <t>MT-ETT-UhS Fr@T</t>
-  </si>
-  <si>
     <t>MT-HCT-2]]f$dfW</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
   </si>
   <si>
     <t>Maximum Precipitation</t>
-  </si>
-  <si>
-    <t>Heat Wave</t>
   </si>
   <si>
     <t>Cumulative Precipitation</t>
@@ -643,16 +634,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" customWidth="1"/>
@@ -721,16 +712,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>120</v>
@@ -742,31 +733,31 @@
         <v>190</v>
       </c>
       <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" t="s">
         <v>73</v>
-      </c>
-      <c r="R2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -774,10 +765,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -792,31 +783,31 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
         <v>54</v>
       </c>
-      <c r="N3" t="s">
-        <v>57</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
         <v>15</v>
       </c>
       <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s">
         <v>74</v>
-      </c>
-      <c r="R3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -824,10 +815,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -842,31 +833,31 @@
         <v>70</v>
       </c>
       <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
       </c>
       <c r="Q4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" t="s">
         <v>74</v>
-      </c>
-      <c r="R4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -874,46 +865,49 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="H5">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -924,46 +918,52 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>120</v>
       </c>
       <c r="G6">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="H6">
-        <v>190</v>
+        <v>160</v>
+      </c>
+      <c r="I6">
+        <v>180</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -971,55 +971,40 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7">
-        <v>120</v>
-      </c>
-      <c r="G7">
-        <v>140</v>
-      </c>
-      <c r="H7">
-        <v>160</v>
-      </c>
-      <c r="I7">
-        <v>180</v>
-      </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1027,10 +1012,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>35</v>
@@ -1039,28 +1024,28 @@
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
         <v>51</v>
       </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1068,40 +1053,43 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>42.5</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>47.5</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
         <v>51</v>
       </c>
-      <c r="M9" t="s">
-        <v>54</v>
-      </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1109,43 +1097,43 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>42.5</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>45</v>
+        <v>37.5</v>
       </c>
       <c r="H10">
-        <v>47.5</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1153,43 +1141,43 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11">
+        <v>37.5</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
         <v>42.5</v>
       </c>
-      <c r="G11">
-        <v>45</v>
-      </c>
-      <c r="H11">
-        <v>47.5</v>
-      </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1197,43 +1185,43 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>42.5</v>
       </c>
       <c r="G12">
-        <v>37.5</v>
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>40</v>
+        <v>47.5</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1241,131 +1229,43 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13">
-        <v>37.5</v>
-      </c>
-      <c r="G13">
-        <v>40</v>
-      </c>
-      <c r="H13">
-        <v>42.5</v>
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14">
-        <v>42.5</v>
-      </c>
-      <c r="G14">
-        <v>45</v>
-      </c>
-      <c r="H14">
-        <v>47.5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" t="s">
         <v>74</v>
-      </c>
-      <c r="R14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1273,7 @@
     <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="O7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/CCS RTD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85959F4-8E13-CF44-A6D1-EECA75C4E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32E478E-3278-A34B-81F1-B47A065B1FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="32760" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Disruption</t>
   </si>
   <si>
-    <t>Asset Types</t>
-  </si>
-  <si>
     <t>WB</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
     <t>MT-HCT-.S?syq3L</t>
   </si>
   <si>
+    <t>HW-HCT-xljO&amp;2u'</t>
+  </si>
+  <si>
     <t>Maximum Temperature</t>
   </si>
   <si>
@@ -121,6 +121,9 @@
     <t>Cumulative Precipitation</t>
   </si>
   <si>
+    <t>Heat Wave</t>
+  </si>
+  <si>
     <t>Exposure Tolerance Threshold</t>
   </si>
   <si>
@@ -133,13 +136,10 @@
     <t>mm/day</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>47.5</t>
-  </si>
-  <si>
-    <t>55</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>number of days</t>
@@ -172,6 +172,9 @@
     <t>H49.3 - Other passenger land transport,H49.4 - Freight transport by road and removal services</t>
   </si>
   <si>
+    <t>H50 - Water transport</t>
+  </si>
+  <si>
     <t>Armenia, Georgia, Vietnam</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>tis is a test</t>
   </si>
   <si>
+    <t>This is an example of a heatwave</t>
+  </si>
+  <si>
     <t>https://github.com/Analytics-for-a-Better-World/GPBP_Analytics_Tools</t>
   </si>
   <si>
@@ -232,6 +238,9 @@
     <t>ARM Road Main Catastrophic</t>
   </si>
   <si>
+    <t xml:space="preserve">ARM Heatwave (5-day) </t>
+  </si>
+  <si>
     <t>Moderate</t>
   </si>
   <si>
@@ -241,19 +250,34 @@
     <t>Minor</t>
   </si>
   <si>
-    <t>Urban Roads</t>
-  </si>
-  <si>
-    <t>Highways</t>
-  </si>
-  <si>
-    <t>Public Buildings</t>
-  </si>
-  <si>
-    <t>Rural Roads</t>
-  </si>
-  <si>
-    <t>Railway lines ,Railway stations</t>
+    <t>Asset Type Level 1</t>
+  </si>
+  <si>
+    <t>Asset Type Level 2</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Roads</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Railway lines</t>
+  </si>
+  <si>
+    <t>National Highways or Freeways</t>
+  </si>
+  <si>
+    <t>Rural or Farm Roads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural or Farm Roads: </t>
+  </si>
+  <si>
+    <t>Schools</t>
   </si>
 </sst>
 </file>
@@ -292,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -315,6 +339,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -323,12 +358,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -634,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,13 +684,24 @@
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="56.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,24 +754,30 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>120</v>
@@ -742,33 +798,39 @@
         <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="4">
+        <v>45069</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -783,7 +845,7 @@
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>43</v>
@@ -792,33 +854,39 @@
         <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s">
         <v>15</v>
       </c>
       <c r="Q3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="S3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="4">
+        <v>45070</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -842,39 +910,45 @@
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="S4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="4">
+        <v>45071</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>120</v>
@@ -895,36 +969,42 @@
         <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="S5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" s="4">
+        <v>45072</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>120</v>
@@ -939,7 +1019,7 @@
         <v>180</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -948,33 +1028,36 @@
         <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="T6" s="4">
+        <v>45073</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>35</v>
@@ -983,7 +1066,7 @@
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
         <v>43</v>
@@ -992,30 +1075,36 @@
         <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="S7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T7" s="4">
+        <v>45074</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>35</v>
@@ -1024,7 +1113,7 @@
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
@@ -1033,30 +1122,36 @@
         <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="4">
+        <v>45075</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>42.5</v>
@@ -1068,7 +1163,7 @@
         <v>47.5</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
         <v>43</v>
@@ -1077,30 +1172,36 @@
         <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="S9" t="s">
+        <v>81</v>
+      </c>
+      <c r="T9" s="4">
+        <v>45076</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>35</v>
@@ -1112,7 +1213,7 @@
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
         <v>43</v>
@@ -1121,30 +1222,36 @@
         <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="S10" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="4">
+        <v>45077</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>37.5</v>
@@ -1156,7 +1263,7 @@
         <v>42.5</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
         <v>43</v>
@@ -1165,30 +1272,36 @@
         <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="S11" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="4">
+        <v>45078</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>42.5</v>
@@ -1200,7 +1313,7 @@
         <v>47.5</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
         <v>43</v>
@@ -1209,42 +1322,48 @@
         <v>49</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="S12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" s="4">
+        <v>45079</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>47.5</v>
+      </c>
+      <c r="H13">
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
         <v>43</v>
@@ -1253,19 +1372,72 @@
         <v>49</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
+        <v>82</v>
+      </c>
+      <c r="T13" s="4">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s">
         <v>72</v>
       </c>
-      <c r="R13" t="s">
-        <v>74</v>
+      <c r="Q14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s">
+        <v>82</v>
+      </c>
+      <c r="T14" s="4">
+        <v>45081</v>
       </c>
     </row>
   </sheetData>
